--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015022.946424358</v>
+        <v>4010718.790043395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445534.67060185</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416312.8161626701</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136012.286445753</v>
+        <v>7136152.10520982</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0596109626758</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -746,16 +746,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>111.2416826913616</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>169.4074428755525</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.96337572139657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.7079352124034</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>30.51524036961504</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>147.660373857605</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.23081672164217</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.88958719509583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>354.4321293226873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>59.48550737293807</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592391</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>67.97967831201558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.6413264712507</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.1803765787777</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.5905264284531</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.837854880032</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7835305494816</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187857</v>
+        <v>409.7118518805304</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.072100630566</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.63343793839876</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>198.9342177604055</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.8132680802165</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.6597432779051</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.1484535251832</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.6385854862392</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.1454234638238</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4016296194438</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.82300401116896</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0389002799224</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3068574109542</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478368478323</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.7394649897075</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.154305906398</v>
       </c>
       <c r="D13" t="n">
-        <v>47.84205650381972</v>
+        <v>148.5229578259825</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.3414474543393</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.3285328307014</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>180.9418112982572</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>93.18666788208147</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.0919843628636</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.0451281315982</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.4304831443612</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6171401968073</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.492138159865</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.6413264712507</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.1803765787777</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.5905264284531</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.837854880032</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7835305494816</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.7118518805304</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.072100630566</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.63343793839874</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>198.9342177604057</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.8132680802167</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.6597432779051</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.1484535251839</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.6385854862392</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.1454234638238</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4016296194438</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82300401116896</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0389002799224</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3068574109542</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478368478323</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.7394649897075</v>
       </c>
       <c r="C16" t="n">
-        <v>102.7111628144459</v>
+        <v>111.2771447119093</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.4320844739424</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2062996874254</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.30347656630836</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.9418112982572</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.3149064599181</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.0919843628636</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.0451281315982</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.4304831443612</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6171401968073</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.492138159865</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.6413264712507</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.1803765787777</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.5905264284531</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.837854880032</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7835305494843</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.7118518805304</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.072100630566</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.63343793839874</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>198.9342177604057</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.8132680802167</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.6597432779051</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.1484535251832</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.6385854862392</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.1454234638238</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4016296194438</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82300401116896</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0389002799224</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3068574109542</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478368478323</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.7394649897075</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.154305906398</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.5229578259825</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.4320844739424</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2062996874254</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.18719589790098</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>178.9728794061114</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.0919843628636</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.0451281315982</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.4304831443612</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6171401968073</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.492138159865</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.6413264712507</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.1803765787777</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.5905264284531</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.837854880032</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7835305494843</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.7118518805304</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.072100630566</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.63343793839874</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>198.9342177604057</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.8132680802167</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.6597432779051</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.1484535251832</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.6385854862392</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.1454234638238</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4016296194438</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82300401116896</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0389002799224</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3068574109542</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478368478323</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.7394649897075</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.154305906398</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>61.17550840396451</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.4320844739424</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2062996874254</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>10.42631537181945</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>180.9418112982572</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.3149064599181</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.0919843628636</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.0451281315982</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.4304831443612</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6171401968073</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.492138159865</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.7394649897075</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.154305906398</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.431623100039</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>84.80866915804572</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.28273151789186</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>180.9337708094148</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.3129351350584</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0919591970143</v>
       </c>
       <c r="V25" t="n">
-        <v>177.9413471369465</v>
+        <v>252.0451281315982</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.4304831443612</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6171401968073</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.492138159865</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.13809394730836</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2472899190578</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>97.98413062224054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>160.1816324288066</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44.30292280757602</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.7330060626392</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>419.7330060626392</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>153.3553494954612</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>153.3553494954612</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>146.4098487462577</v>
+        <v>515.1547061224652</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>419.7330060626392</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>419.7330060626392</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626392</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.452798987214</v>
+        <v>489.334169819989</v>
       </c>
       <c r="C3" t="n">
-        <v>485.999769706087</v>
+        <v>314.881140538862</v>
       </c>
       <c r="D3" t="n">
-        <v>337.0653600448358</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="E3" t="n">
-        <v>177.8279050393803</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6535314649671</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252638</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4448,13 +4448,13 @@
         <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>865.4010070455899</v>
       </c>
       <c r="X3" t="n">
-        <v>828.6681360072821</v>
+        <v>657.5495068400571</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.6681360072821</v>
+        <v>657.5495068400571</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.2138124781542</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>198.2138124781542</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>198.2138124781542</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>452.8983006840411</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>198.2138124781542</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>198.2138124781542</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>198.2138124781542</v>
+        <v>890.5040702965262</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.2138124781542</v>
+        <v>669.711491152996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672985</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4567,22 +4567,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>255.7225503044908</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9467308776107</v>
+        <v>198.4551434940588</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776107</v>
+        <v>198.4551434940588</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>198.4551434940588</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>198.4551434940588</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>51.92058552094377</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>51.92058552094377</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>51.92058552094377</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>541.9223666626326</v>
+        <v>782.2822794846136</v>
       </c>
       <c r="X6" t="n">
-        <v>541.9223666626326</v>
+        <v>574.4307792790808</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.1620678976788</v>
+        <v>366.6704805141268</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.6421545640785</v>
+        <v>378.8398477105897</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>209.9036647826827</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>59.78702537034701</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
@@ -4731,7 +4731,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1036.785229909968</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>811.3161936679827</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>811.3161936679827</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>556.6317054620959</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>556.6317054620959</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X7" t="n">
-        <v>328.6421545640785</v>
+        <v>560.4883125408294</v>
       </c>
       <c r="Y7" t="n">
-        <v>328.6421545640785</v>
+        <v>560.4883125408294</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1135.949446189632</v>
+        <v>2051.040280862504</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9371943485339</v>
+        <v>1682.077763922092</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9371943485339</v>
+        <v>1323.812065315342</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9371943485339</v>
+        <v>938.0238127170976</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589263</v>
+        <v>527.0379079274901</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909975</v>
+        <v>111.3331576517789</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685558</v>
+        <v>111.3331576517789</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762132</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858405</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858405</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1896.015044514834</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1896.015044514834</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1522.549286253754</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.549286253754</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010736</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199466</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586954</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532399</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801249</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148174</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482983</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225991</v>
+        <v>1001.276695922948</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695168</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682556</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030386</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442622</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251694</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685343</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751573</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791628</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821142</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.995970042801</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>518.0597871148941</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9431477025583</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9431477025583</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025583</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422491</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380129</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951766</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.787843951766</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.10335574588</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1089.437014016571</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1089.437014016571</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>868.6444348730407</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.201123549691</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.3320562984</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.159807380771</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.465004471648</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.5725493711611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.7221939362811</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.27581569808899</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.0410153668463</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.5712685999624</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.169770428893</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2205.938081084147</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.096252242981</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3639.448450179469</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4193.293601532541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4561.035498154753</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4689.538957896582</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4605.060737756786</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4404.117083453346</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4150.770348018784</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3819.800910364334</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.125704783341</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.753396211383</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2703.707513924692</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3791539380853</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9261246569583</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9917149957071</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7542599902515</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2197020171365</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4604801793145</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>243.385947988105</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>577.2227434117201</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1072.430054033318</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.430054033318</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.956772832906</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.736876143672</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.25598860049</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.448102970475</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.832819796449</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.623872916698</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.595754888584</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.443646656842</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.20628992864</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.354789723107</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.594490958153</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>707.2728438219937</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>538.4301105832078</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>388.4069208599931</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>240.587276966721</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.086094684948</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.8138800244343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.2361564613479</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.265850000756</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.69741493884</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.253724715093</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.965527263272</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2447.217104595267</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2447.217104595267</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.447598233392</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2170.319650877754</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1881.337848491023</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1626.746809974257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1337.423089626418</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1109.526988417521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>888.8278589631124</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.20112354969</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.332056298399</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.15980738077</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.465004471647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.5725493711602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.7221939362811</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.27581569808933</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.0410153668468</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.5712685999624</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.169770428892</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2205.938081084147</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.096252242981</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3639.448450179468</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4193.293601532541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4561.035498154753</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4689.538957896582</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.060737756786</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.117083453346</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4150.770348018784</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3819.800910364334</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.125704783341</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.753396211382</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.707513924691</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3791539380853</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9261246569583</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9917149957071</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7542599902515</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2197020171365</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4604801793145</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.385947988105</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.2227434117201</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.430054033318</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1669.670496281127</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.126760806583</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.832819796449</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.623872916698</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.595754888584</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.443646656842</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.20628992864</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.354789723107</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.594490958153</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910542</v>
+        <v>514.9175759996257</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.413304094725</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793165</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.086094684948</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.8138800244344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.2361564613482</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.265850000756</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.697414938841</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.253724715094</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.965527263273</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2447.217104595268</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.243895942432</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.474389580556</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.964383055386</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.982580668655</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1434.391542151889</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1145.06782180405</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264824</v>
+        <v>917.1717205951535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121294</v>
+        <v>696.4725911407444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.201123549693</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.332056298402</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.159807380773</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.46500447165</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.5725493711603</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.7221939362811</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.27581569808967</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.0410153668471</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.5712685999629</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.169770428893</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2205.938081084148</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.096252242981</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3639.44845017947</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4193.293601532543</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4561.035498154754</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4689.538957896584</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.060737756788</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.117083453348</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4150.770348018786</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3819.800910364336</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.125704783343</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.753396211384</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.707513924694</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3791539380853</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9261246569583</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9917149957071</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7542599902515</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2197020171365</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4604801793145</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.53940824909094</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.1345770792643</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>578.9713725028795</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.178683124478</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.419125372287</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.273827879544</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.832819796449</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.623872916698</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.595754888584</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.443646656842</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.20628992864</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.354789723107</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.594490958153</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.3896112707088</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>634.5468780319229</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>484.5236883087082</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>484.5236883087082</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.5236883087082</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.4205726784634</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.79804774167</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0860946849481</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.8138800244344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.2361564613482</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.265850000756</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.697414938841</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.253724715094</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.965527263273</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2447.217104595268</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2447.217104595268</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2447.217104595268</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2266.436418326469</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.454615939738</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.863577422972</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.539857075133</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.643755866236</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9446264118275</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.201123549693</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.332056298402</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.159807380773</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.46500447165</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.5725493711603</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.7221939362811</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.27581569808967</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.0410153668471</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.5712685999629</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.169770428893</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2205.938081084147</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.096252242981</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3639.44845017947</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4193.293601532543</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4561.035498154754</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4689.538957896584</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.060737756788</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.117083453348</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4150.770348018786</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3819.800910364336</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.125704783343</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.753396211384</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.707513924694</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3791539380853</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9261246569583</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>619.9917149957071</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7542599902515</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2197020171365</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4604801793145</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.53940824909094</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.1345770792643</v>
       </c>
       <c r="K21" t="n">
-        <v>2418.621364762389</v>
+        <v>578.9713725028795</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.178683124478</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.419125372287</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.273827879544</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.05393119031</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.832819796449</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.623872916698</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.595754888584</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.443646656842</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.20628992864</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.354789723107</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.594490958153</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136243</v>
+        <v>571.3591529637557</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.417838136243</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.301198723907</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.388105141514</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.5164197249698</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.413304094725</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.79077915793168</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0860946849481</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.8138800244344</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.2361564613482</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.265850000756</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.697414938841</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.253724715094</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.965527263273</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2447.217104595268</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2436.685472906562</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2253.915966544686</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2034.405960019516</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1745.424157632785</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1490.833119116019</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1201.50939876818</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>973.6132975592835</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>752.9141681048744</v>
       </c>
     </row>
     <row r="23">
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>515.4273682646211</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>346.5846350258353</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>346.5846350258353</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>346.5846350258353</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>346.5846350258353</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>179.4819854298362</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.1442715186032</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.9251240844494</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.415308300697</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.516601072039</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1666.018062772355</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.638933521647</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2328.405979135513</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2447.69580390272</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.743549844244</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.982165188269</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.474149900332</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1689.492372933651</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1434.901334416885</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1145.577614069045</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>917.6815128601489</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>696.9823834057398</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,13 +6229,13 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,22 +6247,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859342</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2418223735984</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3287287912053</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>449.3287287912053</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>282.1326295060853</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4207983482833</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6849,13 +6849,13 @@
         <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.8692823226941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.310326296464</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.5177471529338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7441,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1977.461080510508</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.043910473548</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7630,31 +7630,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>827.5914569160688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>677.474817503733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>529.5617239213399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>45.44676101130807</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.3272100183898</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.4320844739424</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2062996874254</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.18719589790099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.30347656630839</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>124.1282385778366</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.53565828418198</v>
+        <v>55.87716119448869</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.5229578259825</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.3414474543393</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.3285328307014</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.18719589790098</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.3414474543393</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648112</v>
+        <v>145.3285328307014</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.30347656630836</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.9418112982572</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>38.3420270538067</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.5229578259825</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.3414474543393</v>
       </c>
       <c r="F22" t="n">
-        <v>84.24553961896675</v>
+        <v>145.3285328307014</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.18719589790098</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>55.87716119448892</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.5229578259825</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.3414474543393</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.3285328307014</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.39352849594835</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.17332112633571</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>74.19629618688151</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>35.12774237125717</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>60.33736343303696</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>63.36835372228752</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>7.065188669821254</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>101.1181252153552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>631428.1143281336</v>
+        <v>631435.1046947648</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613289.2213126647</v>
+        <v>613319.9676297111</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>613289.2213126647</v>
+        <v>613319.9676297113</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613289.2213126647</v>
+        <v>613319.9676297113</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613289.2213126648</v>
+        <v>613319.9676297113</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613289.2213126647</v>
+        <v>613328.9227641731</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807187.5947793999</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807187.5947794</v>
       </c>
       <c r="G2" t="n">
+        <v>807187.5947794003</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807187.5947794002</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807199.5349586828</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900059</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.5996900058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060694</v>
+        <v>507257.2963689973</v>
       </c>
       <c r="F3" t="n">
-        <v>2.187327309315904e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>278.6313140905949</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101741</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132526.6641172571</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>247648.5670423891</v>
+      </c>
+      <c r="C4" t="n">
         <v>247648.567042389</v>
       </c>
-      <c r="C4" t="n">
-        <v>247648.5670423891</v>
-      </c>
       <c r="D4" t="n">
-        <v>135650.8557716748</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8816.375733686635</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744326</v>
+        <v>8816.3757336866</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744319</v>
+        <v>8816.375733686513</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744322</v>
+        <v>8816.375733686513</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8757.698500531285</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744328</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744229</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744302</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744331</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101105.0581361118</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101105.0581361118</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101105.0581361118</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101105.0581361118</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101130.3074836027</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169742.5809735653</v>
+        <v>-169742.5809735652</v>
       </c>
       <c r="C6" t="n">
-        <v>510345.3996176279</v>
+        <v>510345.3996176281</v>
       </c>
       <c r="D6" t="n">
-        <v>201808.0388588516</v>
+        <v>201453.4966415124</v>
       </c>
       <c r="E6" t="n">
-        <v>189387.5814136605</v>
+        <v>189662.5101634822</v>
       </c>
       <c r="F6" t="n">
-        <v>697296.8134743543</v>
+        <v>696919.8065324794</v>
       </c>
       <c r="G6" t="n">
-        <v>697296.8134743546</v>
+        <v>696919.8065324798</v>
       </c>
       <c r="H6" t="n">
-        <v>697296.8134743548</v>
+        <v>696919.8065324798</v>
       </c>
       <c r="I6" t="n">
-        <v>697296.8134743546</v>
+        <v>696686.8417878184</v>
       </c>
       <c r="J6" t="n">
-        <v>628297.6590552405</v>
+        <v>627950.2798008837</v>
       </c>
       <c r="K6" t="n">
-        <v>697296.8134743549</v>
+        <v>696949.434219998</v>
       </c>
       <c r="L6" t="n">
-        <v>602026.5756833374</v>
+        <v>601566.7880824282</v>
       </c>
       <c r="M6" t="n">
-        <v>564578.8377788853</v>
+        <v>564422.7701027408</v>
       </c>
       <c r="N6" t="n">
-        <v>697296.813474355</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="O6" t="n">
-        <v>697296.8134743546</v>
+        <v>696949.434219998</v>
       </c>
       <c r="P6" t="n">
-        <v>697296.8134743546</v>
+        <v>696949.4342199978</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.620597471216386e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,19 +26743,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.719647540742</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.719647540742</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.719647540742</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.719647540742</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856947</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.384739474146</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.384739474146</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.384739474146</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.384739474146</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.620597471216386e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788915</v>
+        <v>433.6547554232027</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2558528009315069</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841885</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139534</v>
+        <v>531.7999073741069</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.3235486255023261</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139532</v>
+        <v>531.7999073741075</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.620597471216386e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841885</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139534</v>
+        <v>531.7999073741069</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>288.7745636830342</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>33.82752970202232</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>82.2875402853671</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.4705869251726</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.00172017663374</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455754</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.40656363189055</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.0346093033146</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.203145924927</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>186.8295770484979</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10.84076244832028</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>6.224405299532393</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164534625</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.27076102970049</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>218.5433200245754</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222908655</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222715388</v>
       </c>
       <c r="G17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222715388</v>
       </c>
       <c r="G20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.09251519222983971</v>
       </c>
     </row>
     <row r="26">
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.741785922007442e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.498370442374839</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.31018629297132</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>211.9759264796562</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.6673183335118</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.4133391592388</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.684093585068</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.4657389396515</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.0879839590491</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.4135628726842</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.6725425765553</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.7621511090063</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.3870123008288</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.2941164556167</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.06911661149586</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.439869635389987</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.941887543766879</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41244022532749</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9438578082559</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.0503232406368</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.7637844481551</v>
       </c>
       <c r="M12" t="n">
-        <v>565.8030433278966</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>369.2474886485733</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>699.949884152289</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.7714907040456</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5293643587336</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6550880244033</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.64427082391546</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.85787128386737</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935452331425579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466379692286583</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.92835762778437</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.17076383712747</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.3730442446615</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.5484769765685</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.6833953423163</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6162275827051</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4233578205463</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6115586879256</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.2974129652791</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.525666778652</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8973996186313</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.98227154648526</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53816777613358</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345298013974502</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.498370442374839</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.31018629297134</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9759264796562</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.6673183335119</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.4133391592389</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.6840935850681</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.4657389396516</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.0879839590492</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.4135628726843</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.6725425765554</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.7621511090063</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.3870123008288</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.2941164556168</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06911661149587</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439869635389987</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.941887543766879</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.4124402253275</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.943857808256</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.0503232406369</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.7637844481552</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.4072079097044</v>
       </c>
       <c r="N15" t="n">
-        <v>187.2159464875253</v>
+        <v>765.1359186747027</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>401.1085377613405</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.64427082391547</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85787128386738</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935452331425579</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466379692286584</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.92835762778437</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.17076383712748</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.3730442446615</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.5484769765685</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.6833953423164</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6162275827051</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4233578205464</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6115586879257</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2974129652791</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5256667786521</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8973996186313</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.98227154648527</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53816777613358</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345298013974502</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.498370442374839</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.31018629297134</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9759264796562</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.6673183335119</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.4133391592389</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.6840935850681</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.4657389396516</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.0879839590492</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.4135628726843</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.6725425765554</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.7621511090063</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.3870123008288</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.2941164556168</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06911661149587</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439869635389987</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.941887543766879</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.4124402253275</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.288672011272</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.943857808256</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.0503232406369</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.7637844481552</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.4072079097044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>464.5282802724821</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>699.9498841522891</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.64427082391547</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85787128386738</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935452331425579</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466379692286584</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.92835762778437</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.17076383712748</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.3730442446615</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.5484769765685</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.6833953423164</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6162275827051</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4233578205464</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6115586879257</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2974129652791</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5256667786521</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8973996186313</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.98227154648527</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53816777613358</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345298013974502</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.498370442374839</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.31018629297134</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9759264796562</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.6673183335119</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.4133391592389</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.6840935850681</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.4657389396516</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.0879839590492</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.4135628726843</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.6725425765554</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.7621511090063</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.3870123008288</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.2941164556168</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06911661149587</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439869635389987</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.941887543766879</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.4124402253275</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.288672011272</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.943857808256</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551099</v>
+        <v>475.0503232406369</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.7637844481552</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.4072079097044</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>464.5282802724821</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>699.9498841522891</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.64427082391547</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85787128386738</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935452331425579</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466379692286584</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.92835762778437</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.17076383712748</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.3730442446615</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.5484769765685</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.6833953423164</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6162275827051</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4233578205464</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6115586879257</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2974129652791</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5256667786521</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8973996186313</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.98227154648527</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53816777613358</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345298013974502</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>279.0775374915855</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>351.6082511035024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>272.9327299394441</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.572142489744</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758575</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396978</v>
+        <v>412.3780932933486</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>543.8578750988181</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783562</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.500036909250241</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.6214138068256</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.3234881142583</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>631.9176786150808</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.1195057123788</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.6749203624581</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.3153514509975</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.4395468212858</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.4564612345567</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8014744866966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1062311415892</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2088842662778</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.2094046682809</v>
       </c>
       <c r="M12" t="n">
-        <v>423.6690094058782</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>237.90577656524</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.3536397078445</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.7970832897154</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.5475902727121</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.97558406043936</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.10637932021852</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3715003429155</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3659357948623</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2926197367755</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6480453920047</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2892017941951</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6684874224024</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4561387191875</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.500036909250269</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.6214138068256</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.3234881142584</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>631.9176786150808</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.1195057123789</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.6749203624584</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.3153514509976</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.4395468212858</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.4564612345567</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8014744866967</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1062311415893</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2088842662779</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.209404668281</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.2731739876861</v>
       </c>
       <c r="N15" t="n">
-        <v>55.87423440419198</v>
+        <v>633.7942065913694</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>258.5122933168961</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.10637932021855</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3715003429155</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3659357948624</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2926197367755</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6480453920048</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2892017941952</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6684874224024</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4561387191875</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.500036909250269</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.6214138068256</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.3234881142584</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>631.9176786150808</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.1195057123789</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.6749203624584</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.3153514509976</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.4395468212858</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.4564612345567</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8014744866967</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.766292011271972</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1062311415893</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2088842662779</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.209404668281</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.2731739876861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>333.1865681891488</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.3536397078446</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.10637932021855</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3715003429155</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3659357948624</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2926197367755</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6480453920048</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2892017941952</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6684874224024</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4561387191875</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.500036909250269</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.6214138068256</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.3234881142584</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>631.9176786150808</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.1195057123789</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.6749203624584</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.3153514509976</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.4395468212858</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.4564612345567</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8014744866967</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.766292011271972</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1062311415893</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2088842662779</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.209404668281</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.2731739876861</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>333.1865681891488</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.3536397078446</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.10637932021855</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3715003429155</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3659357948624</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2926197367755</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6480453920048</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2892017941952</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6684874224024</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4561387191875</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>136.4812930471411</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.1389984551832</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.4251036018648</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.4345295113613</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.3649421932749</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.7186481821373</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.3544148982753</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.7242884988548</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4947724921282</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>217.6338436891722</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>55.87423440419178</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790297</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>130.3364854949997</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
